--- a/FRANCHUK_6.xlsx
+++ b/FRANCHUK_6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="22995" windowHeight="9540"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="19440" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
   <si>
     <t>Мета</t>
   </si>
@@ -163,6 +163,33 @@
   </si>
   <si>
     <t>MAX RESULT</t>
+  </si>
+  <si>
+    <t>Кількість годин</t>
+  </si>
+  <si>
+    <t>Java SE</t>
+  </si>
+  <si>
+    <t>Теорія ймовірностей</t>
+  </si>
+  <si>
+    <t>Математичний аналіз</t>
+  </si>
+  <si>
+    <t>Філософія</t>
+  </si>
+  <si>
+    <t>Перспективи в працевлаштуванні</t>
+  </si>
+  <si>
+    <t>Вплив і внесок викладача</t>
+  </si>
+  <si>
+    <t>Кількість практични завдань</t>
+  </si>
+  <si>
+    <t>Потреба для подальшого в навчанні</t>
   </si>
 </sst>
 </file>
@@ -337,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,9 +377,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,7 +417,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -462,7 +489,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -638,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +723,9 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
@@ -704,57 +733,59 @@
         <v>1</v>
       </c>
       <c r="F5" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" s="18">
         <v>6</v>
       </c>
       <c r="J5" s="8">
         <f>GEOMEAN(E5:I5)</f>
-        <v>3.6296780899037064</v>
+        <v>2.4914618792310348</v>
       </c>
       <c r="K5" s="2">
         <f>J5/$J$10</f>
-        <v>0.49912540695905749</v>
+        <v>0.37528060485488024</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E6">
         <f>1/F5</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="18">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="8">
         <f>GEOMEAN(E6:I6)</f>
-        <v>0.9791483623609768</v>
+        <v>2.4914618792310348</v>
       </c>
       <c r="K6" s="2">
         <f>J6/$J$10</f>
-        <v>0.13464494997397489</v>
+        <v>0.37528060485488024</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
@@ -767,34 +798,36 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7">
         <f>1/G5</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="F7">
         <f>1/G6</f>
-        <v>3.3333333333333335</v>
+        <v>0.25</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" ref="J6:J9" si="0">GEOMEAN(E7:I7)</f>
-        <v>1.8205642030260802</v>
+        <f t="shared" ref="J7:J9" si="0">GEOMEAN(E7:I7)</f>
+        <v>0.6597539553864471</v>
       </c>
       <c r="K7" s="2">
         <f>J7/$J$10</f>
-        <v>0.25034998317291318</v>
+        <v>9.9376540936376934E-2</v>
       </c>
       <c r="M7" t="s">
         <v>25</v>
@@ -810,35 +843,37 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8">
         <f>1/H5</f>
-        <v>0.14285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="F8">
         <f>1/H6</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G8">
         <f>1/H7</f>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="18">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>0.26976176347003633</v>
+        <v>0.43527528164806206</v>
       </c>
       <c r="K8" s="2">
         <f>J8/$J$10</f>
-        <v>3.709556237190912E-2</v>
+        <v>6.5564065955397863E-2</v>
       </c>
       <c r="M8" t="s">
         <v>26</v>
@@ -854,7 +889,9 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,26 +901,26 @@
       </c>
       <c r="F9">
         <f>1/I6</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G9">
         <f>1/I7</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f>1/I8</f>
-        <v>3.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>0.57292397586249288</v>
+        <v>0.56097757272309978</v>
       </c>
       <c r="K9" s="2">
         <f>J9/$J$10</f>
-        <v>7.878409752214538E-2</v>
+        <v>8.4498183398464682E-2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -892,7 +929,11 @@
       </c>
       <c r="J10" s="9">
         <f>SUM(J5:J9)</f>
-        <v>7.2720763946232925</v>
+        <v>6.6389305682196786</v>
+      </c>
+      <c r="K10" s="2">
+        <f>SUM(K5:K9)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -902,7 +943,9 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="M11" t="s">
         <v>30</v>
       </c>
@@ -917,29 +960,31 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="6">
         <f>SUM(E5:E9)</f>
-        <v>1.8428571428571427</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="F12" s="6">
         <f>SUM(F5:F9)</f>
-        <v>9.8666666666666671</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G12" s="6">
         <f>SUM(G5:G9)</f>
-        <v>4.8</v>
+        <v>10.5</v>
       </c>
       <c r="H12" s="6">
         <f>SUM(H5:H9)</f>
-        <v>22.333333333333332</v>
+        <v>13</v>
       </c>
       <c r="I12" s="6">
         <f>SUM(I5:I9)</f>
-        <v>13.3</v>
+        <v>14.5</v>
       </c>
       <c r="M12" t="s">
         <v>31</v>
@@ -955,53 +1000,57 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="E13" s="4">
         <f>E12*$K5</f>
-        <v>0.91981682139597731</v>
+        <v>1.0007482796130138</v>
       </c>
       <c r="F13" s="4">
         <f>F12*$K6</f>
-        <v>1.3284968397432189</v>
+        <v>1.0007482796130138</v>
       </c>
       <c r="G13" s="4">
         <f>G12*$K7</f>
-        <v>1.2016799192299832</v>
+        <v>1.0434536798319578</v>
       </c>
       <c r="H13" s="4">
         <f>H12*$K8</f>
-        <v>0.82846755963930363</v>
+        <v>0.85233285742017217</v>
       </c>
       <c r="I13" s="4">
         <f>I12*$K9</f>
-        <v>1.0478284970445335</v>
+        <v>1.2252236592777379</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="15">
         <f>SUM(E13:I13)</f>
-        <v>5.3262896370530166</v>
+        <v>5.1225067557558956</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="16">
         <f>(E14-$O$7)/($O$7-1)</f>
-        <v>8.1572409263254153E-2</v>
+        <v>3.0626688938973912E-2</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="14">
         <f>G14/$O$8*100</f>
-        <v>7.2832508270762624</v>
+        <v>2.7345257981226707</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>33</v>
@@ -1091,21 +1140,21 @@
         <v>1</v>
       </c>
       <c r="F18" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18" s="18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H18" s="18">
         <v>7</v>
       </c>
       <c r="I18" s="8">
         <f>GEOMEAN(E18:H18)</f>
-        <v>3.2010858729436795</v>
+        <v>3.1463462836457885</v>
       </c>
       <c r="J18" s="2">
         <f>I18/I$22</f>
-        <v>0.57697749660691799</v>
+        <v>0.53793673685174148</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>16</v>
@@ -1114,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P18" s="18">
         <v>3</v>
@@ -1124,11 +1173,11 @@
       </c>
       <c r="R18" s="8">
         <f>GEOMEAN(N18:Q18)</f>
-        <v>3.0800702882410231</v>
+        <v>2.7108060108295344</v>
       </c>
       <c r="S18" s="2">
         <f>R18/R$22</f>
-        <v>0.58298831450109245</v>
+        <v>0.53365474719656747</v>
       </c>
       <c r="V18" s="12" t="s">
         <v>16</v>
@@ -1137,21 +1186,21 @@
         <v>1</v>
       </c>
       <c r="X18" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="18">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="Z18" s="18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA18" s="8">
         <f>GEOMEAN(W18:Z18)</f>
-        <v>3.2010858729436795</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="2">
         <f>AA18/AA$22</f>
-        <v>0.57697749660691799</v>
+        <v>0.19988165990197773</v>
       </c>
     </row>
     <row r="19" spans="4:28" x14ac:dyDescent="0.25">
@@ -1160,55 +1209,55 @@
       </c>
       <c r="E19">
         <f>1/F18</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="18">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H19" s="18">
         <v>5</v>
       </c>
       <c r="I19" s="8">
         <f>GEOMEAN(E19:H19)</f>
-        <v>0.74008280449228525</v>
+        <v>1.8803015465431969</v>
       </c>
       <c r="J19" s="2">
         <f>I19/I$22</f>
-        <v>0.13339571032035816</v>
+        <v>0.32147868894859433</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N19">
         <f>1/O18</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O19" s="3">
         <v>1</v>
       </c>
       <c r="P19" s="18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" s="8">
         <f>GEOMEAN(N19:Q19)</f>
-        <v>0.94574160900317583</v>
+        <v>1</v>
       </c>
       <c r="S19" s="2">
         <f>R19/R$22</f>
-        <v>0.17900770274342767</v>
+        <v>0.19686202002822903</v>
       </c>
       <c r="V19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="W19">
         <f>1/X18</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X19" s="3">
         <v>1</v>
@@ -1217,15 +1266,15 @@
         <v>0.3</v>
       </c>
       <c r="Z19" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA19" s="8">
         <f>GEOMEAN(W19:Z19)</f>
-        <v>0.74008280449228525</v>
+        <v>0.88011173679339338</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" ref="AB19:AB21" si="1">AA19/AA$22</f>
-        <v>0.13339571032035816</v>
+        <v>0.17591819484947599</v>
       </c>
     </row>
     <row r="20" spans="4:28" x14ac:dyDescent="0.25">
@@ -1234,25 +1283,25 @@
       </c>
       <c r="E20">
         <f>1/G18</f>
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F20">
         <f>1/G19</f>
-        <v>3.3333333333333335</v>
+        <v>0.2</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
       </c>
       <c r="H20" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I20" s="8">
         <f>GEOMEAN(E20:H20)</f>
-        <v>1.6068568378893036</v>
+        <v>0.41113361690051969</v>
       </c>
       <c r="J20" s="2">
         <f>I20/I$22</f>
-        <v>0.28962679307272382</v>
+        <v>7.029228709983211E-2</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>18</v>
@@ -1263,28 +1312,28 @@
       </c>
       <c r="O20">
         <f>1/P19</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="P20" s="3">
         <v>1</v>
       </c>
       <c r="Q20" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R20" s="8">
         <f>GEOMEAN(N20:Q20)</f>
-        <v>1.2574334296829355</v>
+        <v>1</v>
       </c>
       <c r="S20" s="2">
         <f>R20/R$22</f>
-        <v>0.2380039827554799</v>
+        <v>0.19686202002822903</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="W20">
         <f>1/Y18</f>
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="X20">
         <f>1/Y19</f>
@@ -1294,15 +1343,15 @@
         <v>1</v>
       </c>
       <c r="Z20" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA20" s="8">
         <f>GEOMEAN(W20:Z20)</f>
-        <v>1.6068568378893036</v>
+        <v>2.702400309614069</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="1"/>
-        <v>0.28962679307272382</v>
+        <v>0.54016025960527869</v>
       </c>
     </row>
     <row r="21" spans="4:28" x14ac:dyDescent="0.25">
@@ -1314,23 +1363,23 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="F21">
-        <f>1/H18</f>
-        <v>0.14285714285714285</v>
+        <f>1/H19</f>
+        <v>0.2</v>
       </c>
       <c r="G21">
         <f>1/H20</f>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="8">
         <f>GEOMEAN(E21:H21)</f>
-        <v>0.24149779367932211</v>
+        <v>0.41113361690051969</v>
       </c>
       <c r="J21" s="2">
         <f>I21/I$22</f>
-        <v>4.3528601844428187E-2</v>
+        <v>7.029228709983211E-2</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>19</v>
@@ -1340,49 +1389,49 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="O21">
-        <f>1/Q18</f>
-        <v>0.16666666666666666</v>
+        <f>1/Q19</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P21">
         <f>1/Q20</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q21" s="3">
         <v>1</v>
       </c>
       <c r="R21" s="8">
-        <f>GEOMEAN(N21:Q21)</f>
-        <v>0.26084743001221455</v>
+        <f>GEOMEAN(N21:Q22)</f>
+        <v>0.36889397323344053</v>
       </c>
       <c r="S21" s="2">
         <f>R21/R$22</f>
-        <v>4.9372575731577821E-2</v>
+        <v>7.2621212746974556E-2</v>
       </c>
       <c r="V21" s="12" t="s">
         <v>19</v>
       </c>
       <c r="W21">
         <f>1/Z18</f>
-        <v>0.14285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="X21">
-        <f>1/Z18</f>
-        <v>0.14285714285714285</v>
+        <f>1/Z19</f>
+        <v>0.5</v>
       </c>
       <c r="Y21">
         <f>1/Z20</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Z21" s="3">
         <v>1</v>
       </c>
       <c r="AA21" s="8">
         <f>GEOMEAN(W21:Z21)</f>
-        <v>0.24149779367932211</v>
+        <v>0.42044820762685725</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="1"/>
-        <v>4.3528601844428187E-2</v>
+        <v>8.4039885643267601E-2</v>
       </c>
     </row>
     <row r="22" spans="4:28" x14ac:dyDescent="0.25">
@@ -1390,22 +1439,34 @@
         <v>34</v>
       </c>
       <c r="I22" s="9">
-        <f>SUM(I18:I20)</f>
-        <v>5.5480255153252687</v>
+        <f>SUM(I18:I21)</f>
+        <v>5.8489150639900247</v>
+      </c>
+      <c r="J22" s="2">
+        <f>SUM(J18:J21)</f>
+        <v>1</v>
       </c>
       <c r="Q22" s="13" t="s">
         <v>34</v>
       </c>
       <c r="R22" s="9">
-        <f>SUM(R18:R20)</f>
-        <v>5.2832453269271342</v>
+        <f>SUM(R18:R21)</f>
+        <v>5.0796999840629748</v>
+      </c>
+      <c r="S22" s="2">
+        <f>SUM(S18:S21)</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="Z22" s="13" t="s">
         <v>34</v>
       </c>
       <c r="AA22" s="9">
-        <f>SUM(AA18:AA20)</f>
-        <v>5.5480255153252687</v>
+        <f>SUM(AA18:AA21)</f>
+        <v>5.0029602540343197</v>
+      </c>
+      <c r="AB22" s="2">
+        <f>SUM(AB18:AB21)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:28" x14ac:dyDescent="0.25">
@@ -1414,19 +1475,19 @@
       </c>
       <c r="E24" s="11">
         <f>SUM(E18:E21)</f>
-        <v>1.676190476190476</v>
+        <v>1.7857142857142856</v>
       </c>
       <c r="F24" s="11">
         <f>SUM(F18:F21)</f>
-        <v>9.4761904761904763</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="G24" s="11">
         <f>SUM(G18:G21)</f>
-        <v>4.4666666666666668</v>
+        <v>14</v>
       </c>
       <c r="H24" s="11">
         <f>SUM(H18:H21)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>27</v>
@@ -1436,19 +1497,19 @@
       </c>
       <c r="N24" s="11">
         <f>SUM(N18:N21)</f>
-        <v>1.7</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="O24" s="11">
         <f>SUM(O18:O21)</f>
-        <v>7.416666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="P24" s="11">
         <f>SUM(P18:P21)</f>
-        <v>4.9666666666666668</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="Q24" s="11">
         <f>SUM(Q18:Q21)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="R24" s="11" t="s">
         <v>27</v>
@@ -1458,19 +1519,19 @@
       </c>
       <c r="W24" s="11">
         <f>SUM(W18:W21)</f>
-        <v>1.676190476190476</v>
+        <v>4.5</v>
       </c>
       <c r="X24" s="11">
         <f>SUM(X18:X21)</f>
-        <v>9.4761904761904763</v>
+        <v>5.8333333333333339</v>
       </c>
       <c r="Y24" s="11">
         <f>SUM(Y18:Y21)</f>
-        <v>4.4666666666666668</v>
+        <v>1.925</v>
       </c>
       <c r="Z24" s="11">
         <f>SUM(Z18:Z21)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA24" s="11" t="s">
         <v>27</v>
@@ -1479,63 +1540,63 @@
     <row r="25" spans="4:28" x14ac:dyDescent="0.25">
       <c r="E25" s="10">
         <f>E24*$J18</f>
-        <v>0.96712418478873863</v>
+        <v>0.96060131580668118</v>
       </c>
       <c r="F25" s="10">
         <f>F24*$J19</f>
-        <v>1.2640831597024416</v>
+        <v>1.0930275424252209</v>
       </c>
       <c r="G25" s="10">
         <f>G24*$J20</f>
-        <v>1.2936663423914998</v>
+        <v>0.98409201939764956</v>
       </c>
       <c r="H25" s="10">
         <f>H24*$J21</f>
-        <v>0.82704343504413558</v>
+        <v>0.98409201939764956</v>
       </c>
       <c r="I25" s="11">
         <f>SUM(E25:H25)</f>
-        <v>4.3519171219268156</v>
+        <v>4.0218128970272016</v>
       </c>
       <c r="N25" s="10">
         <f>N24*$S18</f>
-        <v>0.99108013465185718</v>
+        <v>0.97836703652704027</v>
       </c>
       <c r="O25" s="10">
         <f>O24*$S19</f>
-        <v>1.3276404620137552</v>
+        <v>1.0499307734838881</v>
       </c>
       <c r="P25" s="10">
         <f>P24*$S20</f>
-        <v>1.1820864476855502</v>
+        <v>1.0499307734838881</v>
       </c>
       <c r="Q25" s="10">
         <f>Q24*$S21</f>
-        <v>0.88870636316840079</v>
+        <v>0.9440757657106692</v>
       </c>
       <c r="R25" s="11">
         <f>SUM(N25:Q25)</f>
-        <v>4.3895134075195639</v>
+        <v>4.0223043492054851</v>
       </c>
       <c r="W25" s="10">
         <f>W24*$AB18</f>
-        <v>0.96712418478873863</v>
+        <v>0.89946746955889978</v>
       </c>
       <c r="X25" s="10">
         <f>X24*$AB19</f>
-        <v>1.2640831597024416</v>
+        <v>1.0261894699552767</v>
       </c>
       <c r="Y25" s="10">
         <f>Y24*$AB20</f>
-        <v>1.2936663423914998</v>
+        <v>1.0398084997401615</v>
       </c>
       <c r="Z25" s="10">
         <f>Z24*$AB21</f>
-        <v>0.82704343504413558</v>
+        <v>1.0925185133624788</v>
       </c>
       <c r="AA25" s="11">
         <f>SUM(W25:Z25)</f>
-        <v>4.3519171219268156</v>
+        <v>4.0579839526168167</v>
       </c>
     </row>
     <row r="26" spans="4:28" x14ac:dyDescent="0.25">
@@ -1544,14 +1605,14 @@
       </c>
       <c r="E26" s="16">
         <f>(I25-$N$7)/($N$7-1)</f>
-        <v>0.11730570730893852</v>
+        <v>7.2709656757338577E-3</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="17">
         <f>E26/$N$8*100</f>
-        <v>13.033967478770947</v>
+        <v>0.80788507508153984</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>33</v>
@@ -1561,14 +1622,14 @@
       </c>
       <c r="N26" s="16">
         <f>(R25-$N$7)/($N$7-1)</f>
-        <v>0.1298378025065213</v>
+        <v>7.4347830684950251E-3</v>
       </c>
       <c r="P26" s="17" t="s">
         <v>29</v>
       </c>
       <c r="Q26" s="17">
         <f>N26/$N$8*100</f>
-        <v>14.426422500724589</v>
+        <v>0.82608700761055842</v>
       </c>
       <c r="R26" s="17" t="s">
         <v>33</v>
@@ -1578,14 +1639,14 @@
       </c>
       <c r="W26" s="16">
         <f>(AA25-$N$7)/($N$7-1)</f>
-        <v>0.11730570730893852</v>
+        <v>1.9327984205605553E-2</v>
       </c>
       <c r="Y26" s="17" t="s">
         <v>29</v>
       </c>
       <c r="Z26" s="17">
         <f>W26/$N$8*100</f>
-        <v>13.033967478770947</v>
+        <v>2.147553800622839</v>
       </c>
       <c r="AA26" s="17" t="s">
         <v>33</v>
@@ -1651,21 +1712,21 @@
         <v>1</v>
       </c>
       <c r="F31" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="H31" s="18">
         <v>5</v>
-      </c>
-      <c r="G31" s="18">
-        <v>3</v>
-      </c>
-      <c r="H31" s="18">
-        <v>10</v>
       </c>
       <c r="I31" s="8">
         <f>GEOMEAN(E31:H31)</f>
-        <v>3.4996355115805833</v>
+        <v>0.88913970501946138</v>
       </c>
       <c r="J31" s="2">
         <f>I31/I$35</f>
-        <v>0.59200236791170069</v>
+        <v>0.16307069313563977</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>16</v>
@@ -1674,21 +1735,21 @@
         <v>1</v>
       </c>
       <c r="O31" s="18">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="P31" s="18">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="Q31" s="18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R31" s="8">
         <f>GEOMEAN(N31:Q31)</f>
-        <v>3.4996355115805833</v>
+        <v>0.59460355750136051</v>
       </c>
       <c r="S31" s="2">
         <f>R31/R$35</f>
-        <v>0.59857872676260937</v>
+        <v>0.11630983946427159</v>
       </c>
     </row>
     <row r="32" spans="4:28" x14ac:dyDescent="0.25">
@@ -1697,48 +1758,48 @@
       </c>
       <c r="E32">
         <f>1/F31</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="18">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H32" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I32" s="8">
         <f>GEOMEAN(E32:H32)</f>
-        <v>0.80503047758503277</v>
+        <v>1.5650845800732873</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" ref="J32:J34" si="2">I32/I$35</f>
-        <v>0.13617988141747453</v>
+        <v>0.28704086191142081</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N32">
         <f>1/O31</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="O32" s="3">
         <v>1</v>
       </c>
       <c r="P32" s="18">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q32" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R32" s="8">
         <f>GEOMEAN(N32:Q32)</f>
-        <v>0.74008280449228525</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="S32" s="2">
         <f t="shared" ref="S32:S34" si="3">R32/R$35</f>
-        <v>0.12658398891712488</v>
+        <v>0.23261967892854318</v>
       </c>
     </row>
     <row r="33" spans="4:19" x14ac:dyDescent="0.25">
@@ -1747,50 +1808,50 @@
       </c>
       <c r="E33">
         <f>1/G31</f>
-        <v>0.33333333333333331</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <f>1/G32</f>
-        <v>3.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
       <c r="H33" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I33" s="8">
         <f>GEOMEAN(E33:H33)</f>
-        <v>1.6068568378893036</v>
+        <v>2.7355647997347612</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="2"/>
-        <v>0.27181775067082481</v>
+        <v>0.50171018737763051</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>18</v>
       </c>
       <c r="N33">
         <f>1/P31</f>
-        <v>0.33333333333333331</v>
+        <v>4</v>
       </c>
       <c r="O33">
         <f>1/P32</f>
-        <v>3.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="P33" s="3">
         <v>1</v>
       </c>
       <c r="Q33" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R33" s="8">
         <f>GEOMEAN(N33:Q33)</f>
-        <v>1.6068568378893036</v>
+        <v>2.8284271247461898</v>
       </c>
       <c r="S33" s="2">
         <f t="shared" si="3"/>
-        <v>0.27483728432026588</v>
+        <v>0.55326595454294414</v>
       </c>
     </row>
     <row r="34" spans="4:19" x14ac:dyDescent="0.25">
@@ -1799,52 +1860,52 @@
       </c>
       <c r="E34">
         <f>1/H31</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F34">
-        <f>1/H31</f>
-        <v>0.1</v>
+        <f>1/H32</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G34">
         <f>1/H33</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="8">
         <f>GEOMEAN(E34:H34)</f>
-        <v>0.20205155046766235</v>
+        <v>0.26269098944241581</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="2"/>
-        <v>3.4179272647471629E-2</v>
+        <v>4.8178257575308886E-2</v>
       </c>
       <c r="M34" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N34">
         <f>1/Q31</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <f>1/Q31</f>
-        <v>0.1</v>
+        <f>1/Q32</f>
+        <v>0.5</v>
       </c>
       <c r="P34">
         <f>1/Q33</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="Q34" s="3">
         <v>1</v>
       </c>
       <c r="R34" s="8">
         <f>GEOMEAN(N34:Q34)</f>
-        <v>0.20205155046766235</v>
+        <v>0.5</v>
       </c>
       <c r="S34" s="2">
         <f t="shared" si="3"/>
-        <v>3.4558958902757599E-2</v>
+        <v>9.7804527064241004E-2</v>
       </c>
     </row>
     <row r="35" spans="4:19" x14ac:dyDescent="0.25">
@@ -1852,15 +1913,23 @@
         <v>34</v>
       </c>
       <c r="I35" s="9">
-        <f>SUM(I31:I33)</f>
-        <v>5.9115228270549194</v>
+        <f>SUM(I31:I34)</f>
+        <v>5.4524800742699258</v>
+      </c>
+      <c r="J35" s="2">
+        <f>SUM(J31:J34)</f>
+        <v>1</v>
       </c>
       <c r="Q35" s="13" t="s">
         <v>34</v>
       </c>
       <c r="R35" s="9">
-        <f>SUM(R31:R33)</f>
-        <v>5.8465751539621715</v>
+        <f>SUM(R31:R34)</f>
+        <v>5.1122377972502715</v>
+      </c>
+      <c r="S35" s="2">
+        <f>SUM(S31:S34)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="37" spans="4:19" x14ac:dyDescent="0.25">
@@ -1869,19 +1938,19 @@
       </c>
       <c r="E37" s="11">
         <f>SUM(E31:E34)</f>
-        <v>1.6333333333333333</v>
+        <v>7.2</v>
       </c>
       <c r="F37" s="11">
         <f>SUM(F31:F34)</f>
-        <v>9.4333333333333336</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="G37" s="11">
         <f>SUM(G31:G34)</f>
-        <v>4.4666666666666668</v>
+        <v>1.8928571428571428</v>
       </c>
       <c r="H37" s="11">
         <f>SUM(H31:H34)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>27</v>
@@ -1891,19 +1960,19 @@
       </c>
       <c r="N37" s="11">
         <f>SUM(N31:N34)</f>
-        <v>1.6333333333333333</v>
+        <v>8</v>
       </c>
       <c r="O37" s="11">
         <f>SUM(O31:O34)</f>
-        <v>9.4333333333333336</v>
+        <v>4</v>
       </c>
       <c r="P37" s="11">
         <f>SUM(P31:P34)</f>
-        <v>4.4666666666666668</v>
+        <v>1.875</v>
       </c>
       <c r="Q37" s="11">
         <f>SUM(Q31:Q34)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="R37" s="11" t="s">
         <v>27</v>
@@ -1912,43 +1981,43 @@
     <row r="38" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E38" s="10">
         <f>E37*$J31</f>
-        <v>0.9669372009224444</v>
+        <v>1.1741089905766064</v>
       </c>
       <c r="F38" s="10">
         <f>F37*$J32</f>
-        <v>1.2846302147048432</v>
+        <v>1.0524831603418763</v>
       </c>
       <c r="G38" s="10">
         <f>G37*$J33</f>
-        <v>1.2141192863296841</v>
+        <v>0.94966571182194348</v>
       </c>
       <c r="H38" s="10">
         <f>H37*$J34</f>
-        <v>0.82030254353931908</v>
+        <v>0.91538689393086881</v>
       </c>
       <c r="I38" s="11">
         <f>SUM(E38:H38)</f>
-        <v>4.2859892454962907</v>
+        <v>4.091644756671295</v>
       </c>
       <c r="N38" s="10">
         <f>N37*$S31</f>
-        <v>0.97767858704559529</v>
+        <v>0.93047871571417273</v>
       </c>
       <c r="O38" s="10">
         <f>O37*$S32</f>
-        <v>1.1941089621182115</v>
+        <v>0.93047871571417273</v>
       </c>
       <c r="P38" s="10">
         <f>P37*$S33</f>
-        <v>1.2276065366305209</v>
+        <v>1.0373736647680203</v>
       </c>
       <c r="Q38" s="10">
         <f>Q37*$S34</f>
-        <v>0.76029709586066718</v>
+        <v>1.1736543247708919</v>
       </c>
       <c r="R38" s="11">
         <f>SUM(N38:Q38)</f>
-        <v>4.1596911816549955</v>
+        <v>4.0719854209672572</v>
       </c>
     </row>
     <row r="39" spans="4:19" x14ac:dyDescent="0.25">
@@ -1957,14 +2026,14 @@
       </c>
       <c r="E39" s="16">
         <f>(I38-$N$7)/($N$7-1)</f>
-        <v>9.5329748498763564E-2</v>
+        <v>3.0548252223765004E-2</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="17">
         <f>E39/$N$8*100</f>
-        <v>10.592194277640395</v>
+        <v>3.3942502470850004</v>
       </c>
       <c r="I39" s="17" t="s">
         <v>33</v>
@@ -1974,14 +2043,14 @@
       </c>
       <c r="N39" s="16">
         <f>(R38-$N$7)/($N$7-1)</f>
-        <v>5.3230393884998506E-2</v>
+        <v>2.3995140322419079E-2</v>
       </c>
       <c r="P39" s="17" t="s">
         <v>29</v>
       </c>
       <c r="Q39" s="17">
         <f>N39/$N$8*100</f>
-        <v>5.9144882094442783</v>
+        <v>2.6661267024910087</v>
       </c>
       <c r="R39" s="17" t="s">
         <v>33</v>
@@ -2015,23 +2084,23 @@
     <row r="47" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E47" s="7">
         <f>$K5</f>
-        <v>0.49912540695905749</v>
+        <v>0.37528060485488024</v>
       </c>
       <c r="F47" s="7">
         <f>$K6</f>
-        <v>0.13464494997397489</v>
+        <v>0.37528060485488024</v>
       </c>
       <c r="G47" s="7">
         <f>$K7</f>
-        <v>0.25034998317291318</v>
+        <v>9.9376540936376934E-2</v>
       </c>
       <c r="H47" s="7">
         <f>$K8</f>
-        <v>3.709556237190912E-2</v>
+        <v>6.5564065955397863E-2</v>
       </c>
       <c r="I47" s="7">
         <f>$K9</f>
-        <v>7.878409752214538E-2</v>
+        <v>8.4498183398464682E-2</v>
       </c>
     </row>
     <row r="48" spans="4:19" x14ac:dyDescent="0.25">
@@ -2040,27 +2109,27 @@
       </c>
       <c r="E48" s="2">
         <f>J18</f>
-        <v>0.57697749660691799</v>
+        <v>0.53793673685174148</v>
       </c>
       <c r="F48" s="2">
         <f>S18</f>
-        <v>0.58298831450109245</v>
+        <v>0.53365474719656747</v>
       </c>
       <c r="G48" s="2">
         <f>AB18</f>
-        <v>0.57697749660691799</v>
+        <v>0.19988165990197773</v>
       </c>
       <c r="H48" s="2">
         <f>J31</f>
-        <v>0.59200236791170069</v>
+        <v>0.16307069313563977</v>
       </c>
       <c r="I48" s="2">
         <f>S31</f>
-        <v>0.59857872676260937</v>
+        <v>0.11630983946427159</v>
       </c>
       <c r="L48">
         <f>SUM(E54:I54)</f>
-        <v>0.58004601235538256</v>
+        <v>0.44253059607490347</v>
       </c>
     </row>
     <row r="49" spans="4:13" x14ac:dyDescent="0.25">
@@ -2069,27 +2138,27 @@
       </c>
       <c r="E49" s="2">
         <f>J19</f>
-        <v>0.13339571032035816</v>
+        <v>0.32147868894859433</v>
       </c>
       <c r="F49" s="2">
         <f>S19</f>
-        <v>0.17900770274342767</v>
+        <v>0.19686202002822903</v>
       </c>
       <c r="G49" s="2">
         <f>AB19</f>
-        <v>0.13339571032035816</v>
+        <v>0.17591819484947599</v>
       </c>
       <c r="H49" s="2">
         <f>J32</f>
-        <v>0.13617988141747453</v>
+        <v>0.28704086191142081</v>
       </c>
       <c r="I49" s="2">
         <f>S32</f>
-        <v>0.12658398891712488</v>
+        <v>0.23261967892854318</v>
       </c>
       <c r="L49">
         <f>SUM(E55:I55)</f>
-        <v>0.13910375982763681</v>
+        <v>0.25048086277209286</v>
       </c>
     </row>
     <row r="50" spans="4:13" x14ac:dyDescent="0.25">
@@ -2098,27 +2167,27 @@
       </c>
       <c r="E50" s="2">
         <f>J20</f>
-        <v>0.28962679307272382</v>
+        <v>7.029228709983211E-2</v>
       </c>
       <c r="F50" s="2">
         <f>S20</f>
-        <v>0.2380039827554799</v>
+        <v>0.19686202002822903</v>
       </c>
       <c r="G50" s="2">
         <f>AB20</f>
-        <v>0.28962679307272382</v>
+        <v>0.54016025960527869</v>
       </c>
       <c r="H50" s="2">
         <f>J33</f>
-        <v>0.27181775067082481</v>
+        <v>0.50171018737763051</v>
       </c>
       <c r="I50" s="2">
         <f>S33</f>
-        <v>0.27483728432026588</v>
+        <v>0.55326595454294414</v>
       </c>
       <c r="L50">
         <f>SUM(E56:I56)</f>
-        <v>0.28085022781698066</v>
+        <v>0.2335812160302915</v>
       </c>
     </row>
     <row r="51" spans="4:13" x14ac:dyDescent="0.25">
@@ -2127,122 +2196,122 @@
       </c>
       <c r="E51" s="2">
         <f>J21</f>
-        <v>4.3528601844428187E-2</v>
+        <v>7.029228709983211E-2</v>
       </c>
       <c r="F51" s="2">
         <f>S21</f>
-        <v>4.9372575731577821E-2</v>
+        <v>7.2621212746974556E-2</v>
       </c>
       <c r="G51" s="2">
         <f>AB21</f>
-        <v>4.3528601844428187E-2</v>
+        <v>8.4039885643267601E-2</v>
       </c>
       <c r="H51" s="2">
         <f>J34</f>
-        <v>3.4179272647471629E-2</v>
+        <v>4.8178257575308886E-2</v>
       </c>
       <c r="I51" s="2">
         <f>S34</f>
-        <v>3.4558958902757599E-2</v>
+        <v>9.7804527064241004E-2</v>
       </c>
       <c r="L51">
         <f>SUM(E57:I57)</f>
-        <v>4.3261979567496063E-2</v>
+        <v>7.3407325122712086E-2</v>
       </c>
     </row>
     <row r="54" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E54" s="7">
         <f>E48*E47</f>
-        <v>0.28798412780014615</v>
+        <v>0.2018772239793821</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" ref="F54:I54" si="4">F48*F47</f>
-        <v>7.8496432441411537E-2</v>
+        <v>0.20027027631160604</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="4"/>
-        <v>0.1444463065666915</v>
+        <v>1.9863547957679861E-2</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" si="4"/>
-        <v>2.1960660763186382E-2</v>
+        <v>1.069157768013753E-2</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>4.7158484783947026E-2</v>
+        <v>9.8279701460980053E-3</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>48</v>
       </c>
       <c r="M54" s="5">
         <f>MAX(L48:L51)</f>
-        <v>0.58004601235538256</v>
+        <v>0.44253059607490347</v>
       </c>
     </row>
     <row r="55" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E55" s="7">
         <f>E49*E47</f>
-        <v>6.6581188200241309E-2</v>
+        <v>0.12064471683658239</v>
       </c>
       <c r="F55" s="7">
         <f>F49*F47</f>
-        <v>2.4102483180844986E-2</v>
+        <v>7.3878497949147331E-2</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" ref="F55:I55" si="5">G49*G47</f>
-        <v>3.3395613834040466E-2</v>
+        <f t="shared" ref="G55:I55" si="5">G49*G47</f>
+        <v>1.7482141691912485E-2</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" si="5"/>
-        <v>5.0516692849211144E-3</v>
+        <v>1.8819566002254644E-2</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="5"/>
-        <v>9.9728053275889364E-3</v>
+        <v>1.9655940292196011E-2</v>
       </c>
     </row>
     <row r="56" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E56" s="7">
         <f>E50*E47</f>
-        <v>0.14456009095867001</v>
+        <v>2.6379332019457889E-2</v>
       </c>
       <c r="F56" s="7">
         <f t="shared" ref="F56:I56" si="6">F50*F47</f>
-        <v>3.2046034351718371E-2</v>
+        <v>7.3878497949147331E-2</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="6"/>
-        <v>7.250806277218122E-2</v>
+        <v>5.3679258150867971E-2</v>
       </c>
       <c r="H56" s="7">
         <f t="shared" si="6"/>
-        <v>1.0083232323801624E-2</v>
+        <v>3.2894159815721989E-2</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="6"/>
-        <v>2.1652807410609425E-2</v>
+        <v>4.6749968095096316E-2</v>
       </c>
     </row>
     <row r="57" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E57" s="7">
         <f>E51*E47</f>
-        <v>2.1726231109958999E-2</v>
+        <v>2.6379332019457889E-2</v>
       </c>
       <c r="F57" s="7">
         <f t="shared" ref="F57:I57" si="7">F51*F47</f>
-        <v>6.6477679894645821E-3</v>
+        <v>2.7253332644979551E-2</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="7"/>
-        <v>1.0897384739293034E-2</v>
+        <v>8.3515931359166191E-3</v>
       </c>
       <c r="H57" s="7">
         <f>H51*H47</f>
-        <v>1.2678993403207712E-3</v>
+        <v>3.1587624572836986E-3</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="7"/>
-        <v>2.722696388458669E-3</v>
+        <v>8.2643048650743386E-3</v>
       </c>
     </row>
   </sheetData>
